--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5151ba23ed5498a/문서/UiPath/20221116_시나리오_9/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71B2DF2D-A4DB-4269-B828-296E8F97690A}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0881D0B3-2865-44A8-97FE-4058B33A6701}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -29,13 +29,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>STR_webtoon_url</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://comic.naver.com/webtoon/weekday</t>
   </si>
   <si>
     <t>STR_today_week</t>
@@ -71,12 +64,24 @@
     <t>요일 단위만 가져오기</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>INT_count_check</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STR_week_webtoon_url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://comic.naver.com/webtoon/weekday</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,6 +125,13 @@
       <name val="Arial Unicode MS"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,10 +150,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,9 +162,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -164,6 +179,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +485,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -514,44 +533,48 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.4"/>
+    <row r="5" spans="1:26" ht="14.4">
+      <c r="B5" s="2"/>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="2"/>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1539,7 +1562,10 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A228FCCE-A21B-4F81-BAB9-867F9AACB96D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>